--- a/sandbox_limesurvey/sortie.xlsx
+++ b/sandbox_limesurvey/sortie.xlsx
@@ -1,163 +1,322 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nbr/Documents/GitHub/r-projects/sandbox_limesurvey/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F29406-6EA8-254A-B5EE-91288A14A744}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="34240" windowHeight="18620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>lan</t>
-  </si>
-  <si>
-    <t>dat</t>
-  </si>
-  <si>
-    <t>sex</t>
-  </si>
-  <si>
-    <t>exp</t>
-  </si>
-  <si>
-    <t>can</t>
-  </si>
-  <si>
-    <t>q1</t>
-  </si>
-  <si>
-    <t>q1quant</t>
-  </si>
-  <si>
-    <t>q1qual</t>
-  </si>
-  <si>
-    <t>q2</t>
-  </si>
-  <si>
-    <t>q2quant</t>
-  </si>
-  <si>
-    <t>q2qual</t>
-  </si>
-  <si>
-    <t>q3</t>
-  </si>
-  <si>
-    <t>q3quant</t>
-  </si>
-  <si>
-    <t>q3qual</t>
-  </si>
-  <si>
-    <t>q4</t>
-  </si>
-  <si>
-    <t>q4quant</t>
-  </si>
-  <si>
-    <t>q4qual</t>
-  </si>
-  <si>
-    <t>q5</t>
-  </si>
-  <si>
-    <t>q5quant</t>
-  </si>
-  <si>
-    <t>q5qual</t>
-  </si>
-  <si>
-    <t>q6</t>
-  </si>
-  <si>
-    <t>q6quant</t>
-  </si>
-  <si>
-    <t>q6qual</t>
-  </si>
-  <si>
-    <t>q7</t>
-  </si>
-  <si>
-    <t>q7quant</t>
-  </si>
-  <si>
-    <t>q7qual</t>
-  </si>
-  <si>
-    <t>q8</t>
-  </si>
-  <si>
-    <t>q8quant</t>
-  </si>
-  <si>
-    <t>q8qual</t>
-  </si>
-  <si>
-    <t>q9</t>
-  </si>
-  <si>
-    <t>fr</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>vs</t>
-  </si>
-  <si>
-    <t>Feedback, item 1.</t>
-  </si>
-  <si>
-    <t>item 2. bla bla.</t>
-  </si>
-  <si>
-    <t>ras.</t>
-  </si>
-  <si>
-    <t>propositions Lionel à discuter.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+  <si>
+    <t xml:space="preserve">id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r1a11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r1a12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r1a21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r1a22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r1a31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r1a32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r1a41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r1a42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r1a51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r1a52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r1b11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r1b12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r1b21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r1b22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r1b31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r1b32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r1b41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r1b42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r1b51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r1b52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r1c11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r1c12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r1c21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r1c22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r1c31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r1c32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r1c41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r1c42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r1c51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r1c52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r1d11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r1d12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r1d21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r1d22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r1d31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r1d32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r1d41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r1d42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r1d51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r1d52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ra1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ra2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ra3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ra4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ra5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rb1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rb2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rb3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rb4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rb5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rc1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rc2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rc3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rc4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rc5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rd1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rd2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rd3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rd4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rd5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-26 13:34:08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bjjb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jjj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-26 13:46:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">be</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uhuh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-26 13:54:42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-26 15:41:48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -180,23 +339,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -478,19 +627,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="X13" sqref="X13"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -584,89 +728,864 @@
       <c r="AE1" t="s">
         <v>30</v>
       </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="2">
+      <c r="A2" t="n">
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="1">
-        <v>44263.4289699074</v>
+        <v>68</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="H2">
-        <v>5</v>
+        <v>72</v>
+      </c>
+      <c r="G2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" t="s">
+        <v>74</v>
       </c>
       <c r="I2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2">
-        <v>3</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
+        <v>74</v>
+      </c>
+      <c r="J2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K2" t="s">
+        <v>70</v>
       </c>
       <c r="L2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>3</v>
-      </c>
-      <c r="P2">
+        <v>70</v>
+      </c>
+      <c r="M2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N2" t="s">
+        <v>75</v>
+      </c>
+      <c r="O2" t="s">
+        <v>76</v>
+      </c>
+      <c r="P2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>74</v>
+      </c>
+      <c r="R2" t="s">
+        <v>74</v>
+      </c>
+      <c r="S2" t="s">
+        <v>70</v>
+      </c>
+      <c r="T2" t="s">
+        <v>70</v>
+      </c>
+      <c r="U2" t="s">
+        <v>75</v>
+      </c>
+      <c r="V2" t="s">
+        <v>75</v>
+      </c>
+      <c r="W2" t="s">
+        <v>76</v>
+      </c>
+      <c r="X2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AY2"/>
+      <c r="AZ2"/>
+      <c r="BA2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>80</v>
+      </c>
+      <c r="BC2"/>
+      <c r="BD2"/>
+      <c r="BE2" t="s">
+        <v>81</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BG2"/>
+      <c r="BH2"/>
+      <c r="BI2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BK2"/>
+      <c r="BL2"/>
+      <c r="BM2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BO2"/>
+      <c r="BP2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>10</v>
       </c>
-      <c r="Q2">
-        <v>4</v>
-      </c>
-      <c r="S2">
-        <v>8</v>
-      </c>
-      <c r="T2">
-        <v>3</v>
-      </c>
-      <c r="U2" t="s">
-        <v>37</v>
-      </c>
-      <c r="V2">
-        <v>8</v>
-      </c>
-      <c r="W2">
-        <v>2</v>
-      </c>
-      <c r="Y2">
-        <v>1</v>
-      </c>
-      <c r="Z2">
-        <v>3</v>
-      </c>
-      <c r="AB2">
-        <v>6</v>
-      </c>
-      <c r="AC2">
-        <v>5</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>38</v>
-      </c>
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M3" t="s">
+        <v>90</v>
+      </c>
+      <c r="N3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>91</v>
+      </c>
+      <c r="R3" t="s">
+        <v>91</v>
+      </c>
+      <c r="S3" t="s">
+        <v>91</v>
+      </c>
+      <c r="T3" t="s">
+        <v>91</v>
+      </c>
+      <c r="U3" t="s">
+        <v>91</v>
+      </c>
+      <c r="V3" t="s">
+        <v>91</v>
+      </c>
+      <c r="W3" t="s">
+        <v>91</v>
+      </c>
+      <c r="X3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AY3"/>
+      <c r="AZ3"/>
+      <c r="BA3" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC3"/>
+      <c r="BD3"/>
+      <c r="BE3" t="s">
+        <v>89</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>89</v>
+      </c>
+      <c r="BG3"/>
+      <c r="BH3"/>
+      <c r="BI3" t="s">
+        <v>89</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>89</v>
+      </c>
+      <c r="BK3"/>
+      <c r="BL3"/>
+      <c r="BM3" t="s">
+        <v>89</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>89</v>
+      </c>
+      <c r="BO3"/>
+      <c r="BP3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J4" t="s">
+        <v>91</v>
+      </c>
+      <c r="K4" t="s">
+        <v>94</v>
+      </c>
+      <c r="L4" t="s">
+        <v>94</v>
+      </c>
+      <c r="M4" t="s">
+        <v>94</v>
+      </c>
+      <c r="N4" t="s">
+        <v>91</v>
+      </c>
+      <c r="O4" t="s">
+        <v>90</v>
+      </c>
+      <c r="P4" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>91</v>
+      </c>
+      <c r="R4" t="s">
+        <v>91</v>
+      </c>
+      <c r="S4" t="s">
+        <v>91</v>
+      </c>
+      <c r="T4" t="s">
+        <v>86</v>
+      </c>
+      <c r="U4" t="s">
+        <v>91</v>
+      </c>
+      <c r="V4" t="s">
+        <v>86</v>
+      </c>
+      <c r="W4" t="s">
+        <v>90</v>
+      </c>
+      <c r="X4" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AY4"/>
+      <c r="AZ4"/>
+      <c r="BA4" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC4"/>
+      <c r="BD4"/>
+      <c r="BE4" t="s">
+        <v>89</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>89</v>
+      </c>
+      <c r="BG4"/>
+      <c r="BH4"/>
+      <c r="BI4" t="s">
+        <v>89</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>89</v>
+      </c>
+      <c r="BK4"/>
+      <c r="BL4"/>
+      <c r="BM4" t="s">
+        <v>89</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>89</v>
+      </c>
+      <c r="BO4"/>
+      <c r="BP4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" t="s">
+        <v>96</v>
+      </c>
+      <c r="I5" t="s">
+        <v>94</v>
+      </c>
+      <c r="J5" t="s">
+        <v>94</v>
+      </c>
+      <c r="K5" t="s">
+        <v>94</v>
+      </c>
+      <c r="L5" t="s">
+        <v>94</v>
+      </c>
+      <c r="M5" t="s">
+        <v>94</v>
+      </c>
+      <c r="N5" t="s">
+        <v>94</v>
+      </c>
+      <c r="O5" t="s">
+        <v>94</v>
+      </c>
+      <c r="P5" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>94</v>
+      </c>
+      <c r="R5" t="s">
+        <v>91</v>
+      </c>
+      <c r="S5" t="s">
+        <v>94</v>
+      </c>
+      <c r="T5" t="s">
+        <v>91</v>
+      </c>
+      <c r="U5" t="s">
+        <v>94</v>
+      </c>
+      <c r="V5" t="s">
+        <v>91</v>
+      </c>
+      <c r="W5" t="s">
+        <v>94</v>
+      </c>
+      <c r="X5" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>94</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>94</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>94</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AY5"/>
+      <c r="AZ5"/>
+      <c r="BA5" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC5"/>
+      <c r="BD5"/>
+      <c r="BE5" t="s">
+        <v>89</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>89</v>
+      </c>
+      <c r="BG5"/>
+      <c r="BH5"/>
+      <c r="BI5" t="s">
+        <v>89</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>89</v>
+      </c>
+      <c r="BK5"/>
+      <c r="BL5"/>
+      <c r="BM5" t="s">
+        <v>89</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>89</v>
+      </c>
+      <c r="BO5"/>
+      <c r="BP5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>